--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cdh1-Itgae.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cdh1-Itgae.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,7 +522,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -531,51 +531,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09886600000000001</v>
+        <v>0.002166666666666667</v>
       </c>
       <c r="H2">
-        <v>0.296598</v>
+        <v>0.0065</v>
       </c>
       <c r="I2">
-        <v>0.3026185969870576</v>
+        <v>0.004890446475191893</v>
       </c>
       <c r="J2">
-        <v>0.3026185969870576</v>
+        <v>0.004890446475191893</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.834406333333334</v>
+        <v>0.009620666666666666</v>
       </c>
       <c r="N2">
-        <v>8.503219000000001</v>
+        <v>0.028862</v>
       </c>
       <c r="O2">
-        <v>0.9744807897686623</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9744807897686621</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.2802264165513334</v>
+        <v>2.084477777777778E-05</v>
       </c>
       <c r="R2">
-        <v>2.522037748962001</v>
+        <v>0.000187603</v>
       </c>
       <c r="S2">
-        <v>0.2948960093906324</v>
+        <v>0.004890446475191893</v>
       </c>
       <c r="T2">
-        <v>0.2948960093906323</v>
+        <v>0.004890446475191893</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -587,22 +587,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.09886600000000001</v>
+        <v>0.440874</v>
       </c>
       <c r="H3">
-        <v>0.296598</v>
+        <v>1.322622</v>
       </c>
       <c r="I3">
-        <v>0.3026185969870576</v>
+        <v>0.9951095535248081</v>
       </c>
       <c r="J3">
-        <v>0.3026185969870576</v>
+        <v>0.9951095535248081</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -611,152 +611,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.074226</v>
+        <v>0.009620666666666666</v>
       </c>
       <c r="N3">
-        <v>0.222678</v>
+        <v>0.028862</v>
       </c>
       <c r="O3">
-        <v>0.02551921023133782</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.02551921023133782</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.007338427716</v>
+        <v>0.004241501795999999</v>
       </c>
       <c r="R3">
-        <v>0.06604584944400001</v>
+        <v>0.038173516164</v>
       </c>
       <c r="S3">
-        <v>0.007722587596425215</v>
+        <v>0.9951095535248081</v>
       </c>
       <c r="T3">
-        <v>0.007722587596425215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.2278356666666667</v>
-      </c>
-      <c r="H4">
-        <v>0.683507</v>
-      </c>
-      <c r="I4">
-        <v>0.6973814030129425</v>
-      </c>
-      <c r="J4">
-        <v>0.6973814030129425</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M4">
-        <v>2.834406333333334</v>
-      </c>
-      <c r="N4">
-        <v>8.503219000000001</v>
-      </c>
-      <c r="O4">
-        <v>0.9744807897686623</v>
-      </c>
-      <c r="P4">
-        <v>0.9744807897686621</v>
-      </c>
-      <c r="Q4">
-        <v>0.6457788565592223</v>
-      </c>
-      <c r="R4">
-        <v>5.812009709033001</v>
-      </c>
-      <c r="S4">
-        <v>0.6795847803780299</v>
-      </c>
-      <c r="T4">
-        <v>0.6795847803780298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.2278356666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.683507</v>
-      </c>
-      <c r="I5">
-        <v>0.6973814030129425</v>
-      </c>
-      <c r="J5">
-        <v>0.6973814030129425</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.074226</v>
-      </c>
-      <c r="N5">
-        <v>0.222678</v>
-      </c>
-      <c r="O5">
-        <v>0.02551921023133782</v>
-      </c>
-      <c r="P5">
-        <v>0.02551921023133782</v>
-      </c>
-      <c r="Q5">
-        <v>0.016911330194</v>
-      </c>
-      <c r="R5">
-        <v>0.152201971746</v>
-      </c>
-      <c r="S5">
-        <v>0.0177966226349126</v>
-      </c>
-      <c r="T5">
-        <v>0.0177966226349126</v>
+        <v>0.9951095535248081</v>
       </c>
     </row>
   </sheetData>
